--- a/public/upload/report/LAMPIRAN PENGAJUAN KENAIKAN PANGKAT BIRO ADMINISTRASI KESRA DAN KEMASYARAKATAN.xlsx
+++ b/public/upload/report/LAMPIRAN PENGAJUAN KENAIKAN PANGKAT BIRO ADMINISTRASI KESRA DAN KEMASYARAKATAN.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="26">
   <si>
     <t>PEMERINTAH PROVINSI SULAWESI TENGGARA</t>
   </si>
@@ -54,6 +54,45 @@
   </si>
   <si>
     <t>UNIT KERJA</t>
+  </si>
+  <si>
+    <t>'196512231987032017</t>
+  </si>
+  <si>
+    <t>DARLIAN</t>
+  </si>
+  <si>
+    <t>III/d</t>
+  </si>
+  <si>
+    <t>IV/a</t>
+  </si>
+  <si>
+    <t>Reguler</t>
+  </si>
+  <si>
+    <t>Penelaah Kebijakan Pengadaan Barang dan Jasa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SUB BAGIAN PENGELOLAAN STRATEGI PENGADAAN BARANG/JASA   </t>
+  </si>
+  <si>
+    <t>'196812311994032050</t>
+  </si>
+  <si>
+    <t>NURHAYATI</t>
+  </si>
+  <si>
+    <t>IV/b</t>
+  </si>
+  <si>
+    <t>IV/c</t>
+  </si>
+  <si>
+    <t>Analis Kebijakan Ahli Madya</t>
+  </si>
+  <si>
+    <t xml:space="preserve">BAGIAN PENDIDIKAN, KEPEMUDAAN &amp; OLAHRAGA, PEMBER.PRMPN &amp; PERL.ANAK &amp; KB, KEBUDAYAAN &amp; PARIWISATA  </t>
   </si>
 </sst>
 </file>
@@ -125,7 +164,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0"/>
     <xf xfId="0" fontId="1" numFmtId="0" fillId="0" borderId="0" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
@@ -133,6 +172,7 @@
     <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="0" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
+    <xf xfId="0" fontId="0" numFmtId="0" fillId="0" borderId="1" applyFont="0" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="0"/>
     <xf xfId="0" fontId="2" numFmtId="0" fillId="0" borderId="1" applyFont="1" applyNumberFormat="0" applyFill="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="false" shrinkToFit="false"/>
     </xf>
@@ -470,7 +510,7 @@
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
   </sheetPr>
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:H10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0" showGridLines="true" showRowColHeaders="1">
       <selection activeCell="A7" sqref="A7:H8"/>
@@ -537,42 +577,94 @@
       <c r="H5" s="2"/>
     </row>
     <row r="7" spans="1:8">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="4" t="s">
         <v>4</v>
       </c>
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="C7" s="3" t="s">
+      <c r="C7" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="D7" s="3" t="s">
+      <c r="D7" s="4" t="s">
         <v>7</v>
       </c>
-      <c r="E7" s="3"/>
-      <c r="F7" s="3" t="s">
+      <c r="E7" s="4"/>
+      <c r="F7" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="G7" s="3" t="s">
+      <c r="G7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="H7" s="3" t="s">
+      <c r="H7" s="4" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="8" spans="1:8">
-      <c r="A8" s="3"/>
-      <c r="B8" s="3"/>
-      <c r="C8" s="3"/>
-      <c r="D8" s="3" t="s">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="F8" s="3"/>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8">
+      <c r="A9" s="3">
+        <v>1</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="H9" s="3" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8">
+      <c r="A10" s="3">
+        <v>2</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="H10" s="3" t="s">
+        <v>25</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells>
